--- a/학습자료/단답형/국어_복습_2주차.xlsx
+++ b/학습자료/단답형/국어_복습_2주차.xlsx
@@ -458,13 +458,13 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>㉠곡식이나 장작 따위의 더미를 세는 단위 한 가리는 스무 단이다
+장작 한 가리</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>가리</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>㉠곡식이나 장작 따위의 더미를 세는 단위. 한 가리는 스무 단이다
-장작 한 가리</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -481,12 +481,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>개비</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>㉠가늘고 짤막하게 쪼갠 토막을 세는 단위 장작 두 개비, 담배 대여섯 개비</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -503,13 +503,13 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>㉠오이나 가지 따위를 묶어 세는 단위 한 거리는 오이나 가지 오십 개를 이른다
+가지 두 거리</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>거리</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>㉠오이나 가지 따위를 묶어 세는 단위. 한 거리는 오이나 가지 오십 개를 이른다.
-가지 두 거리</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -526,15 +526,15 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>거리</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>㉡탈놀음, 꼭두각시놀음, 굿 따위에서, 장(場)을 세는 단위 
 한 거리 놀다</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>거리</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -549,13 +549,13 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 관은 한 근의 열 배로 375kg에 해당 한다
+감자 세 관</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>관</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 관은 한 근의 열 배로 3.75kg에 해당 한다.
-감자 세 관</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -572,15 +572,15 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
           <t>㉠식물, 특히 나무를 세는 단위 
 소나무 2천 그루</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -595,15 +595,15 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>그루</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
           <t>㉡한 해에 같은 땅에 농사짓는 횟수를 세는 단위 
 두 그루 심는 논농사</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>그루</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -618,13 +618,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다 
+쇠고기 한 근</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>근</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 한 근은 고기나 한약재의 무게를 잴 때는 600그램에 해당하고, 과일이나 채소 따위의 무게를 잴 때는 한 관의 10분의 1로 375그램에 해당한다. 
-쇠고기 한 근</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -641,13 +641,13 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 한 길은 여덟 자 또는 열 자로 약 24미터 또는 3미터에 해당한다
+천 길</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 한 길은 여덟 자 또는 열 자로 약 2.4미터 또는 3미터에 해당한다.
-천 길</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -664,12 +664,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
+          <t>㉡길이의 단위 한 길은 사람의 키 정도의 길이이다 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>길</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>㉡길이의 단위. 한 길은 사람의 키 정도의 길이이다. 트럭에 실린 통나무는 굵기는 한 아름이 넘고 길이는 열 길이 넘었다.</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -686,15 +686,15 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>꾸러미</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
           <t>㉠달걀 열 개를 묶어 세는 단위 
 달걀 한 꾸러미</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>꾸러미</t>
+        </is>
+      </c>
       <c r="C12" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -709,13 +709,13 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
+          <t>㉠예전에, 엽전을 세던 단위 한 냥은 한 돈의 열 배이다 
+돈 천 냥, 돈 만 냥을 꾸다</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
           <t>냥</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>㉠예전에, 엽전을 세던 단위. 한 냥은 한 돈의 열 배이다. 
-돈 천 냥, 돈 만 냥을 꾸다.</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -732,13 +732,13 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
+          <t>㉠납작한 물건을 세는 단위 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다
+동전 한 닢</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
           <t>닢</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>㉠납작한 물건을 세는 단위. 흔히 돈이나 가마니, 멍석 따위를 셀 때 쓴다.
-동전 한 닢</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -755,13 +755,13 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>㉠물건 열두 개를 묶어 세는 단위 ‘12개’, ‘타(打)’로 순화 
+연필 한 다스</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>다스</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>㉠물건 열두 개를 묶어 세는 단위. ‘12개’, ‘타(打)’로 순화 
-연필 한 다스</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -778,15 +778,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>단</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
           <t>㉠짚, 땔나무, 채소 따위의 묶음을 세는 단위 
 볏짚 한 단</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>단</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -801,15 +801,15 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
           <t>㉠화살 따위와 같이 가늘고 긴 물건을 세는 단위 
 화살 세 대</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -824,13 +824,13 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>㉡이나 갈비를 세는 단위 
+삼촌은 교통사고로 갈비가 세 대나 나갔다</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>㉡이나 갈비를 세는 단위 
-삼촌은 교통사고로 갈비가 세 대나 나갔다.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -847,13 +847,13 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
+          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
+담배 한 대 먼저 채우고 나서 이야기합시다</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>㉢담배통에 채워 넣는 담배의 분량이나 담배를 피우는 횟수를 세는 단위 
-담배 한 대 먼저 채우고 나서 이야기합시다.</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -870,15 +870,15 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>대</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
           <t>㉣때리는 횟수를 세는 단위 
 회초리로 몇 대 맞을래?</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>대</t>
+        </is>
+      </c>
       <c r="C20" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -893,13 +893,13 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>㉤주사를 놓는 횟수를 세는 단위 
+엉덩이에 주사를 한 대 맞다</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
           <t>대</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>㉤주사를 놓는 횟수를 세는 단위 
-엉덩이에 주사를 한 대 맞다.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -916,14 +916,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>㉠무게의 단위 귀금속이나 한약재 따위의 무게를 잴 때 쓴다 
+한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 375 그램에 해당한다
+금 두 냥 서 돈</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
           <t>돈</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>㉠무게의 단위. 귀금속이나 한약재 따위의 무게를 잴 때 쓴다. 
-한 돈은 한 냥의 10분의 1, 한 푼의 열 배로 3.75 그램에 해당한다.
-금 두 냥 서 돈</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -940,13 +940,13 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>㉠부피의 단위 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1)8리 터에 해당한다
+쌀 한 되</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
           <t>되</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>㉠부피의 단위. 곡식, 가루, 액체 따위의 부피를 잴 때 쓴 다. 한 되는 한 말의 10분의 1, 한 홉의 열 배로 약 1.8리 터에 해당한다.
-쌀 한 되</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -963,15 +963,15 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>되들이</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
           <t>㉠곡식이나 물, 술 따위를 되에 담아 그 분량을 세는 단위 
 한 되들이 술병</t>
         </is>
       </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>되들이</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -986,13 +986,13 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>㉠논, 밭의 넓이의 단위 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다 
+땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>되지기</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>㉠논, 밭의 넓이의 단위. 볍씨 한 되의 모나 씨앗을 심을 만한 넓이로 한 마지기의 10분의 1이다. 
-땅은 논 열 마지기와 밭 두 되지기가 고작이었다</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1009,15 +1009,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
           <t>㉠ 조기 따위의 물고기를 짚으로 한 줄에 열 마리씩 두 줄로 엮은 것을 세는 단위 
 청어 한 두름</t>
         </is>
       </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1032,15 +1032,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>두름</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
           <t>㉡고사리 따위의 산나물을 열 모숨 정도로 엮은 것을 세는 단위
 고사리 한 두름</t>
         </is>
       </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>두름</t>
+        </is>
+      </c>
       <c r="C27" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1055,13 +1055,13 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
+          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
+바느질을 한 땀 한 땀 정성 들여 하다</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
           <t>땀</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>㉠실을 꿴 바늘로 한 번 뜬 자국을 세는 단위 
-바느질을 한 땀 한 땀 정성 들여 하다.</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1078,13 +1078,13 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>㉠거리의 단위 1리는 약 0393km에 해당한다 
+예전에는 학교까지 오 리쯤 걸어 다녔다</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
           <t>리</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>㉠거리의 단위. 1리는 약 0.393km에 해당한다. 
-예전에는 학교까지 오 리쯤 걸어 다녔다.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1101,15 +1101,15 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>마리</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
           <t>㉠짐승이나 물고기, 벌레 따위를 세는 단위 
 소 한 마리</t>
         </is>
       </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>마리</t>
+        </is>
+      </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1124,13 +1124,13 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
+          <t>㉠논밭 넓이의 단위 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다
+논 다섯 마지기</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
           <t>마지기</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>㉠논밭 넓이의 단위. 지방마다 다르나 논은 약 150~300 평, 밭은 약 100평 정도이다.
-논 다섯 마지기</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1147,15 +1147,15 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>모</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
           <t>㉠두부나 묵 따위를 세는 단위 
 두부 한 모</t>
         </is>
       </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>모</t>
+        </is>
+      </c>
       <c r="C32" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1170,15 +1170,15 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>모금</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
           <t>㉠액체나 기체를 입 안에 한 번 머금는 분량을 세는 단위 
 물 한 모금, 담배 몇 모금</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>모금</t>
+        </is>
+      </c>
       <c r="C33" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1193,13 +1193,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>㉠길이의 단위 신발의 크기를 잴 때 쓴다 1문은 약 24cm에 해당한다
+십 문 반짜리 운동화</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
           <t>문</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>㉠길이의 단위. 신발의 크기를 잴 때 쓴다. 1문은 약 2.4cm에 해당한다.
-십 문 반짜리 운동화</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1216,15 +1216,15 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>뭇</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
           <t>㉠짚, 장작, 채소 따위의 작은 묶음을 세는 단위 
 땔감은 아예 말똥, 소똥을 말려 쓰고, 몇 뭇 안 남은 조 짚은 마소를 먹였다</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>뭇</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr">
         <is>
           <t>2주차</t>
@@ -1239,12 +1239,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>㉡볏단을 세는 단위</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>㉡볏단을 세는 단위</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1261,13 +1261,13 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
+          <t>㉢생선을 묶어 세는 단위 한 뭇은 생선 열 마리를 이른다 
+삼치 다섯 뭇</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>㉢생선을 묶어 세는 단위. 한 뭇은 생선 열 마리를 이른다. 
-삼치 다섯 뭇</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1284,12 +1284,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>㉣미역을 묶어 세는 단위 한 뭇은 미역 열 장을 이른다</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
           <t>뭇</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>㉣미역을 묶어 세는 단위. 한 뭇은 미역 열 장을 이른다.</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1306,12 +1306,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>하나둘, 한둘</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>1 2</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>하나둘, 한둘</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1328,12 +1328,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
+          <t>두셋</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
           <t>2 3</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>두셋</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1350,12 +1350,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>서너</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
           <t>3 4</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>서너</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1372,12 +1372,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>네댓</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>네댓</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1394,12 +1394,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1416,12 +1416,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
+          <t>예닐곱</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>예닐곱</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1438,12 +1438,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>두서너</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>두서너</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1460,12 +1460,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
+          <t>두서넛</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
           <t>2 3 4</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>두서넛</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1482,12 +1482,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>너더댓</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>너더댓</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
+          <t>네다섯</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
           <t>4 5</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>네다섯</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1526,12 +1526,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
+          <t>대여섯</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>대여섯</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1548,12 +1548,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
+          <t>대엿</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
           <t>5 6</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>대엿</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1570,12 +1570,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>일여덟</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
           <t>7 8</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>일여덟</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1592,12 +1592,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
+          <t>열이 조금 넘는 수</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
           <t>여남은</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>열이 조금 넘는 수</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1614,12 +1614,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
+          <t>엄지(손가락)</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>엄지(손가락)</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1636,12 +1636,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
+          <t>무지(拇指)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>무지(拇指)</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1658,12 +1658,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>대무지(大拇指)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>대무지(大拇指)</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1680,12 +1680,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
+          <t>대지(大旨)</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>대지(大旨)</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1702,12 +1702,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
+          <t>거지(巨指)</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>거지(巨指)</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1724,12 +1724,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
+          <t>벽지(擘指)</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
           <t>첫째 손가락</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>벽지(擘指)</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1746,12 +1746,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
+          <t>검지</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>검지</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1768,12 +1768,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
+          <t>집게손가락</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>집게손가락</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1790,12 +1790,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>식지(食指)</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>식지(食指)</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1812,12 +1812,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>염지(鹽指)</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>염지(鹽指)</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1834,12 +1834,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
+          <t>인지(人指)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>둘째 손가락</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>인지(人指)</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1856,12 +1856,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
+          <t>가운뎃손가락</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>가운뎃손가락</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1878,12 +1878,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>장지(長指)</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>장지(長指)</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1900,12 +1900,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>중지(中指)</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>중지(中指)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>장짓가락</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>장짓가락</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1944,12 +1944,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>상지(上指)</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
           <t>셋째 손가락</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>상지(上指)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1966,12 +1966,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>약지(藥指)</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>약지(藥指)</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1988,12 +1988,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
+          <t>약손가락</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>약손가락</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2010,12 +2010,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>무명지(無名指)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
           <t>넷째 손가락</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>무명지(無名指)</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2032,12 +2032,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>새끼손(가락)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>새끼손(가락)</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2054,12 +2054,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
+          <t>소지(小指)</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>소지(小指)</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2076,12 +2076,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>계지(季指)</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>계지(季指)</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2098,12 +2098,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
+          <t>수소지(手小指)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
           <t>다섯째 손가락</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>수소지(手小指)</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
